--- a/Varios/Preguntas_Desempleo.xlsx
+++ b/Varios/Preguntas_Desempleo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JManuel\Desktop\ITESO\Etica_CienciaDeDatos\Proyecto_EticaCD\Varios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FAB57D-26DC-469C-9422-A497C9D14774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5A7E9E-881E-4258-8576-13550DB97CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2A7FFA0-14D1-4456-A4AF-7F6BC62EFBFF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Preguntas</t>
   </si>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>Es una recopilación de 3-4 bases de datos enfocadas al desempleo en USA, las cuales nos dicen la tasa de desempleo por raza y genero, las cuales están en porcentaje y valores numéricos (cantidad de personas que cumplen con estas características). Las bases de datos se obtuvieron de varios bancos de datos de instuciones estatales, federales y de uso no lucrativo para poder obtener un dataset en el cual tengamos la mayoría de los datos con la mejor calidad y confianza posible.</t>
+  </si>
+  <si>
+    <t>¿Existe un cambio en el desempleo en cuanto al ambito racial?</t>
+  </si>
+  <si>
+    <t>¿La raza es un factor importante en el empleo o desempleo de una persona?</t>
+  </si>
+  <si>
+    <t>¿Se puede cuantificar la raza en los datos?</t>
+  </si>
+  <si>
+    <t>¿Hay una tendencia en el nivel de vida de una persona y el desempleo de cada grupo?</t>
+  </si>
+  <si>
+    <t>Aunque esten menos desempleados, ¿tiene un mejor nivel de vida?</t>
+  </si>
+  <si>
+    <t>¿Qué tan importante es el tema del desempleo en USA? ¿Es un tema mayor o menor?</t>
+  </si>
+  <si>
+    <t>¿Las personas están dispuestas a trabajar?</t>
+  </si>
+  <si>
+    <t>¿Murieron más personas y por eso bajo el desempleo? ¿O quisieron trabajar más?</t>
+  </si>
+  <si>
+    <t>¿Los migrantes hacen que aumente el desempleo?</t>
   </si>
 </sst>
 </file>
@@ -452,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE1CB7D-6E92-487E-BFC3-3E240A3DFE7B}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,13 +540,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="24" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
